--- a/data/590_P_label_case.xlsx
+++ b/data/590_P_label_case.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:B91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,826 +448,722 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0045151</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.02094490459918304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0090302</v>
+        <v>0.0045151</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1127589687925012</v>
+        <v>0.02094490459918304</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.013545</v>
+        <v>0.0090302</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2084920023639756</v>
+        <v>0.1127589687925012</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.01806</v>
+        <v>0.013545</v>
       </c>
       <c r="B5" t="n">
-        <v>0.241433590465885</v>
+        <v>0.2084920023639756</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.022934</v>
+        <v>0.01806</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2319050738863562</v>
+        <v>0.241433590465885</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.027807</v>
+        <v>0.022934</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2010756357604117</v>
+        <v>0.2319050738863562</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.03268</v>
+        <v>0.027807</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1686191385533303</v>
+        <v>0.2010756357604117</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.037553</v>
+        <v>0.03268</v>
       </c>
       <c r="B9" t="n">
-        <v>0.140447723760407</v>
+        <v>0.1686191385533303</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.042805</v>
+        <v>0.037553</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1160246142095631</v>
+        <v>0.140447723760407</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.048057</v>
+        <v>0.042805</v>
       </c>
       <c r="B11" t="n">
-        <v>0.09713987621126438</v>
+        <v>0.1160246142095631</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.053309</v>
+        <v>0.048057</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0829715803729586</v>
+        <v>0.09713987621126438</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.058561</v>
+        <v>0.053309</v>
       </c>
       <c r="B13" t="n">
-        <v>0.07175440063291491</v>
+        <v>0.0829715803729586</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.06421200000000001</v>
+        <v>0.058561</v>
       </c>
       <c r="B14" t="n">
-        <v>0.06235756683893831</v>
+        <v>0.07175440063291491</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.06986199999999999</v>
+        <v>0.06421200000000001</v>
       </c>
       <c r="B15" t="n">
-        <v>0.05502234306019877</v>
+        <v>0.06235756683893831</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.075513</v>
+        <v>0.06986199999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>0.04933349835044366</v>
+        <v>0.05502234306019877</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.081164</v>
+        <v>0.075513</v>
       </c>
       <c r="B17" t="n">
-        <v>0.04472009728706313</v>
+        <v>0.04933349835044366</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.087233</v>
+        <v>0.081164</v>
       </c>
       <c r="B18" t="n">
-        <v>0.04061706936796382</v>
+        <v>0.04472009728706313</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.093302</v>
+        <v>0.087233</v>
       </c>
       <c r="B19" t="n">
-        <v>0.03731130480955896</v>
+        <v>0.04061706936796382</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.099371</v>
+        <v>0.093302</v>
       </c>
       <c r="B20" t="n">
-        <v>0.03464331141122259</v>
+        <v>0.03731130480955896</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.10544</v>
+        <v>0.099371</v>
       </c>
       <c r="B21" t="n">
-        <v>0.03242823092863498</v>
+        <v>0.03464331141122259</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.11195</v>
+        <v>0.10544</v>
       </c>
       <c r="B22" t="n">
-        <v>0.03035229854483423</v>
+        <v>0.03242823092863498</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.11845</v>
+        <v>0.11195</v>
       </c>
       <c r="B23" t="n">
-        <v>0.02859685358923482</v>
+        <v>0.03035229854483423</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.12496</v>
+        <v>0.11845</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0270928333474157</v>
+        <v>0.02859685358923482</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.13147</v>
+        <v>0.12496</v>
       </c>
       <c r="B25" t="n">
-        <v>0.02576867765319803</v>
+        <v>0.0270928333474157</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.13843</v>
+        <v>0.13147</v>
       </c>
       <c r="B26" t="n">
-        <v>0.02445333163781207</v>
+        <v>0.02576867765319803</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.14539</v>
+        <v>0.13843</v>
       </c>
       <c r="B27" t="n">
-        <v>0.02328838159139576</v>
+        <v>0.02445333163781207</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.15235</v>
+        <v>0.14539</v>
       </c>
       <c r="B28" t="n">
-        <v>0.02226387465763626</v>
+        <v>0.02328838159139576</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.15931</v>
+        <v>0.15235</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0213688253958842</v>
+        <v>0.02226387465763626</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.16674</v>
+        <v>0.15931</v>
       </c>
       <c r="B30" t="n">
-        <v>0.02050462307787101</v>
+        <v>0.0213688253958842</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.17417</v>
+        <v>0.16674</v>
       </c>
       <c r="B31" t="n">
-        <v>0.01977283078743698</v>
+        <v>0.02050462307787101</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.1816</v>
+        <v>0.17417</v>
       </c>
       <c r="B32" t="n">
-        <v>0.01911844544190702</v>
+        <v>0.01977283078743698</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.18903</v>
+        <v>0.1816</v>
       </c>
       <c r="B33" t="n">
-        <v>0.01848824865160717</v>
+        <v>0.01911844544190702</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.19695</v>
+        <v>0.18903</v>
       </c>
       <c r="B34" t="n">
-        <v>0.01779221608777953</v>
+        <v>0.01848824865160717</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.20486</v>
+        <v>0.19695</v>
       </c>
       <c r="B35" t="n">
-        <v>0.01711843699048503</v>
+        <v>0.01779221608777953</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.21277</v>
+        <v>0.20486</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0164884596475438</v>
+        <v>0.01711843699048503</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.22069</v>
+        <v>0.21277</v>
       </c>
       <c r="B37" t="n">
-        <v>0.01592205788541312</v>
+        <v>0.0164884596475438</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.2291</v>
+        <v>0.22069</v>
       </c>
       <c r="B38" t="n">
-        <v>0.01530964296585347</v>
+        <v>0.01592205788541312</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.23751</v>
+        <v>0.2291</v>
       </c>
       <c r="B39" t="n">
-        <v>0.01472831462240834</v>
+        <v>0.01530964296585347</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.24591</v>
+        <v>0.23751</v>
       </c>
       <c r="B40" t="n">
-        <v>0.01417938424580738</v>
+        <v>0.01472831462240834</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.25432</v>
+        <v>0.24591</v>
       </c>
       <c r="B41" t="n">
-        <v>0.01367047138071682</v>
+        <v>0.01417938424580738</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.26323</v>
+        <v>0.25432</v>
       </c>
       <c r="B42" t="n">
-        <v>0.01311437366079313</v>
+        <v>0.01367047138071682</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.27214</v>
+        <v>0.26323</v>
       </c>
       <c r="B43" t="n">
-        <v>0.01263074831716695</v>
+        <v>0.01311437366079313</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.28105</v>
+        <v>0.27214</v>
       </c>
       <c r="B44" t="n">
-        <v>0.01220794125910699</v>
+        <v>0.01263074831716695</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.28996</v>
+        <v>0.28105</v>
       </c>
       <c r="B45" t="n">
-        <v>0.01183312775710173</v>
+        <v>0.01220794125910699</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.29938</v>
+        <v>0.28996</v>
       </c>
       <c r="B46" t="n">
-        <v>0.01140927553277173</v>
+        <v>0.01183312775710173</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.3088</v>
+        <v>0.29938</v>
       </c>
       <c r="B47" t="n">
-        <v>0.01101952623338795</v>
+        <v>0.01140927553277173</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.31821</v>
+        <v>0.3088</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0106632199961912</v>
+        <v>0.01101952623338795</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.32763</v>
+        <v>0.31821</v>
       </c>
       <c r="B49" t="n">
-        <v>0.01034395681613237</v>
+        <v>0.0106632199961912</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.33755</v>
+        <v>0.32763</v>
       </c>
       <c r="B50" t="n">
-        <v>0.009968376879080353</v>
+        <v>0.01034395681613237</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.34747</v>
+        <v>0.33755</v>
       </c>
       <c r="B51" t="n">
-        <v>0.009650718286035321</v>
+        <v>0.009968376879080353</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.35739</v>
+        <v>0.34747</v>
       </c>
       <c r="B52" t="n">
-        <v>0.009378198216383502</v>
+        <v>0.009650718286035321</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.36731</v>
+        <v>0.35739</v>
       </c>
       <c r="B53" t="n">
-        <v>0.009136151580953464</v>
+        <v>0.009378198216383502</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.37773</v>
+        <v>0.36731</v>
       </c>
       <c r="B54" t="n">
-        <v>0.008841181618964715</v>
+        <v>0.009136151580953464</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.38815</v>
+        <v>0.37773</v>
       </c>
       <c r="B55" t="n">
-        <v>0.008568809626550456</v>
+        <v>0.008841181618964715</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.39857</v>
+        <v>0.38815</v>
       </c>
       <c r="B56" t="n">
-        <v>0.008307496234727632</v>
+        <v>0.008568809626550456</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.409</v>
+        <v>0.39857</v>
       </c>
       <c r="B57" t="n">
-        <v>0.008048047538783345</v>
+        <v>0.008307496234727632</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.4199100000000001</v>
+        <v>0.409</v>
       </c>
       <c r="B58" t="n">
-        <v>0.007751613300848923</v>
+        <v>0.008048047538783345</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.43082</v>
+        <v>0.4199100000000001</v>
       </c>
       <c r="B59" t="n">
-        <v>0.007452937208347965</v>
+        <v>0.007751613300848923</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.44173</v>
+        <v>0.43082</v>
       </c>
       <c r="B60" t="n">
-        <v>0.00716190937162107</v>
+        <v>0.007452937208347965</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.45264</v>
+        <v>0.44173</v>
       </c>
       <c r="B61" t="n">
-        <v>0.00689031400798927</v>
+        <v>0.00716190937162107</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.46402</v>
+        <v>0.45264</v>
       </c>
       <c r="B62" t="n">
-        <v>0.006608898887992329</v>
+        <v>0.00689031400798927</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.46403</v>
+        <v>0.46402</v>
       </c>
       <c r="B63" t="n">
-        <v>0.006603414383934764</v>
+        <v>0.006608898887992329</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.4754100000000001</v>
+        <v>0.46403</v>
       </c>
       <c r="B64" t="n">
-        <v>0.006347375211004142</v>
+        <v>0.006603414383934764</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.4868</v>
+        <v>0.4754100000000001</v>
       </c>
       <c r="B65" t="n">
-        <v>0.006099358872183447</v>
+        <v>0.006347375211004142</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.49818</v>
+        <v>0.4868</v>
       </c>
       <c r="B66" t="n">
-        <v>0.005844267677886168</v>
+        <v>0.006099358872183447</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.51002</v>
+        <v>0.49818</v>
       </c>
       <c r="B67" t="n">
-        <v>0.005549959257485634</v>
+        <v>0.005844267677886168</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.52186</v>
+        <v>0.51002</v>
       </c>
       <c r="B68" t="n">
-        <v>0.00525744070489998</v>
+        <v>0.005549959257485634</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.53369</v>
+        <v>0.52186</v>
       </c>
       <c r="B69" t="n">
-        <v>0.004977968286576509</v>
+        <v>0.00525744070489998</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.5455300000000001</v>
+        <v>0.53369</v>
       </c>
       <c r="B70" t="n">
-        <v>0.00472140764248489</v>
+        <v>0.004977968286576509</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.5578</v>
+        <v>0.5455300000000001</v>
       </c>
       <c r="B71" t="n">
-        <v>0.004438986726959236</v>
+        <v>0.00472140764248489</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.57006</v>
+        <v>0.5578</v>
       </c>
       <c r="B72" t="n">
-        <v>0.004175140067878347</v>
+        <v>0.004438986726959236</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.5823199999999999</v>
+        <v>0.57006</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0039373841420893</v>
+        <v>0.004175140067878347</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.59459</v>
+        <v>0.5823199999999999</v>
       </c>
       <c r="B74" t="n">
-        <v>0.003729492108140488</v>
+        <v>0.0039373841420893</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.60724</v>
+        <v>0.59459</v>
       </c>
       <c r="B75" t="n">
-        <v>0.003518696697924531</v>
+        <v>0.003729492108140488</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.6199</v>
+        <v>0.60724</v>
       </c>
       <c r="B76" t="n">
-        <v>0.00332260914017953</v>
+        <v>0.003518696697924531</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.6325499999999999</v>
+        <v>0.6199</v>
       </c>
       <c r="B77" t="n">
-        <v>0.00312806918105836</v>
+        <v>0.00332260914017953</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.63256</v>
+        <v>0.6325499999999999</v>
       </c>
       <c r="B78" t="n">
-        <v>0.003127758245677846</v>
+        <v>0.00312806918105836</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.6452100000000001</v>
+        <v>0.63256</v>
       </c>
       <c r="B79" t="n">
-        <v>0.002927085520425275</v>
+        <v>0.003127758245677846</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.65822</v>
+        <v>0.6452100000000001</v>
       </c>
       <c r="B80" t="n">
-        <v>0.002723315965098758</v>
+        <v>0.002927085520425275</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.67123</v>
+        <v>0.65822</v>
       </c>
       <c r="B81" t="n">
-        <v>0.002530808427905594</v>
+        <v>0.002723315965098758</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.68424</v>
+        <v>0.67123</v>
       </c>
       <c r="B82" t="n">
-        <v>0.002350116705069741</v>
+        <v>0.002530808427905594</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.69725</v>
+        <v>0.68424</v>
       </c>
       <c r="B83" t="n">
-        <v>0.002182972551376051</v>
+        <v>0.002350116705069741</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.71057</v>
+        <v>0.69725</v>
       </c>
       <c r="B84" t="n">
-        <v>0.002001809336004637</v>
+        <v>0.002182972551376051</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.7238899999999999</v>
+        <v>0.71057</v>
       </c>
       <c r="B85" t="n">
-        <v>0.001838174367331065</v>
+        <v>0.002001809336004637</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.73721</v>
+        <v>0.7238899999999999</v>
       </c>
       <c r="B86" t="n">
-        <v>0.001688897511349707</v>
+        <v>0.001838174367331065</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.75053</v>
+        <v>0.73721</v>
       </c>
       <c r="B87" t="n">
-        <v>0.001547711701937519</v>
+        <v>0.001688897511349707</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.7641100000000001</v>
+        <v>0.75053</v>
       </c>
       <c r="B88" t="n">
-        <v>0.001398814943502231</v>
+        <v>0.001547711701937519</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.77769</v>
+        <v>0.7641100000000001</v>
       </c>
       <c r="B89" t="n">
-        <v>0.001251328836554693</v>
+        <v>0.001398814943502231</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.79127</v>
+        <v>0.77769</v>
       </c>
       <c r="B90" t="n">
-        <v>0.001112316269106688</v>
+        <v>0.001251328836554693</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.80485</v>
+        <v>0.79127</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0009882654131504415</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>0.8186399999999999</v>
-      </c>
-      <c r="B92" t="n">
-        <v>0.0008739105480871</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>0.8324299999999999</v>
-      </c>
-      <c r="B93" t="n">
-        <v>0.0007662631208040448</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>0.84621</v>
-      </c>
-      <c r="B94" t="n">
-        <v>0.0006594058832028834</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="B95" t="n">
-        <v>0.0005503976879978193</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>0.8739399999999999</v>
-      </c>
-      <c r="B96" t="n">
-        <v>0.0004454747448558457</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>0.8878799999999999</v>
-      </c>
-      <c r="B97" t="n">
-        <v>0.0003499572948475976</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>0.9018200000000001</v>
-      </c>
-      <c r="B98" t="n">
-        <v>0.0002650786435689859</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>0.91576</v>
-      </c>
-      <c r="B99" t="n">
-        <v>0.0001916495247847971</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>0.92979</v>
-      </c>
-      <c r="B100" t="n">
-        <v>0.0001285488520081839</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>0.9438200000000001</v>
-      </c>
-      <c r="B101" t="n">
-        <v>7.933225875433714e-05</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>0.95785</v>
-      </c>
-      <c r="B102" t="n">
-        <v>4.210487230656025e-05</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>0.97188</v>
-      </c>
-      <c r="B103" t="n">
-        <v>1.631485218496645e-05</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>0.9859399999999999</v>
-      </c>
-      <c r="B104" t="n">
-        <v>3.201768434686963e-06</v>
+        <v>0.001112316269106688</v>
       </c>
     </row>
   </sheetData>
